--- a/Income/ACGL_inc.xlsx
+++ b/Income/ACGL_inc.xlsx
@@ -1840,16 +1840,16 @@
         <v>0.3407</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.3239</v>
+        <v>0.3228</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.3216</v>
+        <v>0.3204</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.3454</v>
+        <v>0.344</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.428</v>
+        <v>0.4263</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.3965</v>
@@ -1967,16 +1967,16 @@
         <v>0.2172</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.192</v>
+        <v>0.1914</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.1828</v>
+        <v>0.1822</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.1971</v>
+        <v>0.1963</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2884</v>
+        <v>0.2873</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2545</v>
@@ -2094,16 +2094,16 @@
         <v>0.1898</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.1626</v>
+        <v>0.1656</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.1636</v>
+        <v>0.1668</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.1817</v>
+        <v>0.185</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.264</v>
+        <v>0.2669</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.2448</v>
@@ -2221,16 +2221,16 @@
         <v>0.1642</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.1484</v>
+        <v>0.1479</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.155</v>
+        <v>0.1544</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.1923</v>
+        <v>0.1915</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.2311</v>
+        <v>0.2302</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.2149</v>
@@ -2348,16 +2348,16 @@
         <v>0.3426</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.3623</v>
+        <v>0.361</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.3624</v>
+        <v>0.361</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.4764</v>
+        <v>0.4745</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.2913</v>
+        <v>0.2902</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.2973</v>
@@ -3376,16 +3376,16 @@
         <v>0.2255</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.2013</v>
+        <v>0.2006</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.1932</v>
+        <v>0.1925</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.2087</v>
+        <v>0.2079</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.3003</v>
+        <v>0.2992</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.2677</v>
@@ -3503,16 +3503,16 @@
         <v>0.3474</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.367</v>
+        <v>0.3658</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.3678</v>
+        <v>0.3664</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.4819</v>
+        <v>0.48</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2968</v>
+        <v>0.2957</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.3031</v>
